--- a/data/snoozing.xlsx
+++ b/data/snoozing.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeystanley/Desktop/R Series/tidyverse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeystanley/Desktop/github/joeystanley/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="snoozing" sheetId="1" r:id="rId1"/>
+    <sheet name="blank" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,12 +28,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>minutes</t>
   </si>
   <si>
     <t>day</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>here</t>
   </si>
 </sst>
 </file>
@@ -349,7 +365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3276,4 +3292,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>